--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -624,7 +624,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationVitalSignsCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationVitalSignsCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -653,7 +653,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationVitalSignsCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationVitalSignsCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1802,7 +1802,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.15234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.90625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
